--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sele-Cd44.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sele-Cd44.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="H2">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N2">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q2">
-        <v>149.4797871924725</v>
+        <v>1913.807375498321</v>
       </c>
       <c r="R2">
-        <v>149.4797871924725</v>
+        <v>17224.26637948489</v>
       </c>
       <c r="S2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="T2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="H3">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N3">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q3">
-        <v>99.77282301490429</v>
+        <v>234.297550523088</v>
       </c>
       <c r="R3">
-        <v>99.77282301490429</v>
+        <v>2108.677954707792</v>
       </c>
       <c r="S3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="T3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="H4">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N4">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q4">
-        <v>143.4711396794477</v>
+        <v>598.1944437206574</v>
       </c>
       <c r="R4">
-        <v>143.4711396794477</v>
+        <v>5383.749993485916</v>
       </c>
       <c r="S4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="T4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
     </row>
   </sheetData>
